--- a/GPA info.xlsx
+++ b/GPA info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -585,22 +585,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Elective1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Elective2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>H</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.0</t>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
